--- a/results/BHP.xlsx
+++ b/results/BHP.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P136"/>
+  <dimension ref="A1:P183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7096,6 +7096,2276 @@
       </c>
       <c r="P136" t="n">
         <v>-16.4600906240336</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>61</v>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="n">
+        <v>0.473021924495697</v>
+      </c>
+      <c r="E137" t="n">
+        <v>47.63594111938887</v>
+      </c>
+      <c r="F137" t="b">
+        <v>1</v>
+      </c>
+      <c r="G137" t="n">
+        <v>54.26189369418387</v>
+      </c>
+      <c r="H137" t="n">
+        <v>22</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-4.73685807529096</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
+        <v>6.625952574795001</v>
+      </c>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>261</v>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="n">
+        <v>1.079604268074036</v>
+      </c>
+      <c r="E138" t="n">
+        <v>37.76769672905622</v>
+      </c>
+      <c r="F138" t="b">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>38.86484628455728</v>
+      </c>
+      <c r="H138" t="n">
+        <v>40</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-3.13641127660289e-05</v>
+      </c>
+      <c r="J138" t="n">
+        <v>4</v>
+      </c>
+      <c r="K138" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
+        <v>1.097149555501062</v>
+      </c>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>392</v>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="n">
+        <v>1.88956880569458</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-8.925570688566154</v>
+      </c>
+      <c r="F139" t="b">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>4.711528461002863</v>
+      </c>
+      <c r="H139" t="n">
+        <v>43</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-8.925570688566154</v>
+      </c>
+      <c r="J139" t="n">
+        <v>52</v>
+      </c>
+      <c r="K139" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
+        <v>13.63709914956902</v>
+      </c>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>466</v>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="n">
+        <v>1.844505310058594</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-17.48863427199364</v>
+      </c>
+      <c r="F140" t="b">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>10.65063152750601</v>
+      </c>
+      <c r="H140" t="n">
+        <v>30</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-22.23668556602953</v>
+      </c>
+      <c r="J140" t="n">
+        <v>47</v>
+      </c>
+      <c r="K140" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
+        <v>28.13926579949965</v>
+      </c>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>526</v>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="n">
+        <v>1.548626661300659</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-12.60453726484744</v>
+      </c>
+      <c r="F141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>6.344843856972289</v>
+      </c>
+      <c r="H141" t="n">
+        <v>9</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-17.44776003314765</v>
+      </c>
+      <c r="J141" t="n">
+        <v>49</v>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>27</v>
+      </c>
+      <c r="M141" t="n">
+        <v>-15.0269936729177</v>
+      </c>
+      <c r="N141" t="n">
+        <v>18.94938112181973</v>
+      </c>
+      <c r="O141" t="n">
+        <v>-2.422456408070254</v>
+      </c>
+      <c r="P141" t="n">
+        <v>-21.37183752988998</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>593</v>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="n">
+        <v>1.994693994522095</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3.373010916465013</v>
+      </c>
+      <c r="F142" t="b">
+        <v>1</v>
+      </c>
+      <c r="G142" t="n">
+        <v>28.11038132447395</v>
+      </c>
+      <c r="H142" t="n">
+        <v>31</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-10.07245279312453</v>
+      </c>
+      <c r="J142" t="n">
+        <v>21</v>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>19</v>
+      </c>
+      <c r="M142" t="n">
+        <v>-1.428561524955964</v>
+      </c>
+      <c r="N142" t="n">
+        <v>24.73737040800894</v>
+      </c>
+      <c r="O142" t="n">
+        <v>-4.801572441420978</v>
+      </c>
+      <c r="P142" t="n">
+        <v>-29.53894284942991</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>620</v>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="n">
+        <v>2.2756028175354</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2.206972131798499</v>
+      </c>
+      <c r="F143" t="b">
+        <v>1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>12.29596232466801</v>
+      </c>
+      <c r="H143" t="n">
+        <v>4</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-20.4081430683052</v>
+      </c>
+      <c r="J143" t="n">
+        <v>12</v>
+      </c>
+      <c r="K143" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
+        <v>10.08899019286951</v>
+      </c>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>646</v>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="n">
+        <v>2.232910394668579</v>
+      </c>
+      <c r="E144" t="n">
+        <v>20.50113688477025</v>
+      </c>
+      <c r="F144" t="b">
+        <v>1</v>
+      </c>
+      <c r="G144" t="n">
+        <v>28.9019971173738</v>
+      </c>
+      <c r="H144" t="n">
+        <v>49</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-7.517196584515349</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
+        <v>8.400860232603552</v>
+      </c>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>656</v>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="n">
+        <v>2.347569465637207</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.578329992017403</v>
+      </c>
+      <c r="F145" t="b">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>22.60621611842172</v>
+      </c>
+      <c r="H145" t="n">
+        <v>39</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-8.761296255106153</v>
+      </c>
+      <c r="J145" t="n">
+        <v>8</v>
+      </c>
+      <c r="K145" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
+        <v>21.02788612640432</v>
+      </c>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>676</v>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="n">
+        <v>2.352946043014526</v>
+      </c>
+      <c r="E146" t="n">
+        <v>21.42483750332226</v>
+      </c>
+      <c r="F146" t="b">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>25.05584984455874</v>
+      </c>
+      <c r="H146" t="n">
+        <v>52</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-14.42115178829716</v>
+      </c>
+      <c r="J146" t="n">
+        <v>36</v>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>36</v>
+      </c>
+      <c r="M146" t="n">
+        <v>-13.55123041703132</v>
+      </c>
+      <c r="N146" t="n">
+        <v>3.631012341236474</v>
+      </c>
+      <c r="O146" t="n">
+        <v>-34.97606792035359</v>
+      </c>
+      <c r="P146" t="n">
+        <v>-38.60708026159006</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>683</v>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="n">
+        <v>2.510542154312134</v>
+      </c>
+      <c r="E147" t="n">
+        <v>19.36467667498227</v>
+      </c>
+      <c r="F147" t="b">
+        <v>1</v>
+      </c>
+      <c r="G147" t="n">
+        <v>28.41211658346893</v>
+      </c>
+      <c r="H147" t="n">
+        <v>50</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-19.79325584332263</v>
+      </c>
+      <c r="J147" t="n">
+        <v>29</v>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>29</v>
+      </c>
+      <c r="M147" t="n">
+        <v>-18.97794268686437</v>
+      </c>
+      <c r="N147" t="n">
+        <v>9.047439908486659</v>
+      </c>
+      <c r="O147" t="n">
+        <v>-38.34261936184664</v>
+      </c>
+      <c r="P147" t="n">
+        <v>-47.3900592703333</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>690</v>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="n">
+        <v>2.730443716049194</v>
+      </c>
+      <c r="E148" t="n">
+        <v>8.711595415108793</v>
+      </c>
+      <c r="F148" t="b">
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>18.07019859530941</v>
+      </c>
+      <c r="H148" t="n">
+        <v>43</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-26.25286099768884</v>
+      </c>
+      <c r="J148" t="n">
+        <v>22</v>
+      </c>
+      <c r="K148" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>22</v>
+      </c>
+      <c r="M148" t="n">
+        <v>-25.50321066202271</v>
+      </c>
+      <c r="N148" t="n">
+        <v>9.358603180200614</v>
+      </c>
+      <c r="O148" t="n">
+        <v>-34.21480607713151</v>
+      </c>
+      <c r="P148" t="n">
+        <v>-43.57340925733212</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>724</v>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="n">
+        <v>2.552745342254639</v>
+      </c>
+      <c r="E149" t="n">
+        <v>6.506777348255673</v>
+      </c>
+      <c r="F149" t="b">
+        <v>1</v>
+      </c>
+      <c r="G149" t="n">
+        <v>26.28914701006039</v>
+      </c>
+      <c r="H149" t="n">
+        <v>9</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-9.900165873546857</v>
+      </c>
+      <c r="J149" t="n">
+        <v>34</v>
+      </c>
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>13</v>
+      </c>
+      <c r="M149" t="n">
+        <v>14.10513132075401</v>
+      </c>
+      <c r="N149" t="n">
+        <v>19.78236966180472</v>
+      </c>
+      <c r="O149" t="n">
+        <v>7.598353972498337</v>
+      </c>
+      <c r="P149" t="n">
+        <v>-12.18401568930638</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>773</v>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="n">
+        <v>2.817050218582153</v>
+      </c>
+      <c r="E150" t="n">
+        <v>10.22936270927374</v>
+      </c>
+      <c r="F150" t="b">
+        <v>1</v>
+      </c>
+      <c r="G150" t="n">
+        <v>24.337548865983</v>
+      </c>
+      <c r="H150" t="n">
+        <v>47</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-18.12749214458653</v>
+      </c>
+      <c r="J150" t="n">
+        <v>26</v>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>15</v>
+      </c>
+      <c r="M150" t="n">
+        <v>-13.84460243754742</v>
+      </c>
+      <c r="N150" t="n">
+        <v>14.10818615670926</v>
+      </c>
+      <c r="O150" t="n">
+        <v>-24.07396514682116</v>
+      </c>
+      <c r="P150" t="n">
+        <v>-38.18215130353042</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>811</v>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="n">
+        <v>2.937892198562622</v>
+      </c>
+      <c r="E151" t="n">
+        <v>29.01527484917118</v>
+      </c>
+      <c r="F151" t="b">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>32.29286894683113</v>
+      </c>
+      <c r="H151" t="n">
+        <v>51</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-2.912629894384126</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="n">
+        <v>14</v>
+      </c>
+      <c r="M151" t="n">
+        <v>5.695386122831624</v>
+      </c>
+      <c r="N151" t="n">
+        <v>3.277594097659954</v>
+      </c>
+      <c r="O151" t="n">
+        <v>-23.31988872633956</v>
+      </c>
+      <c r="P151" t="n">
+        <v>-26.59748282399951</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>840</v>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="n">
+        <v>3.616018295288086</v>
+      </c>
+      <c r="E152" t="n">
+        <v>54.75976284856014</v>
+      </c>
+      <c r="F152" t="b">
+        <v>1</v>
+      </c>
+      <c r="G152" t="n">
+        <v>57.61812475800799</v>
+      </c>
+      <c r="H152" t="n">
+        <v>52</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-8.977999309683572</v>
+      </c>
+      <c r="J152" t="n">
+        <v>9</v>
+      </c>
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" t="n">
+        <v>8</v>
+      </c>
+      <c r="M152" t="n">
+        <v>-7.444826422130618</v>
+      </c>
+      <c r="N152" t="n">
+        <v>2.858361909447858</v>
+      </c>
+      <c r="O152" t="n">
+        <v>-62.20458927069075</v>
+      </c>
+      <c r="P152" t="n">
+        <v>-65.06295118013861</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>861</v>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="n">
+        <v>3.845769643783569</v>
+      </c>
+      <c r="E153" t="n">
+        <v>50.32848373129697</v>
+      </c>
+      <c r="F153" t="b">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>51.41556397569089</v>
+      </c>
+      <c r="H153" t="n">
+        <v>32</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-5.386950056092311</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>37</v>
+      </c>
+      <c r="M153" t="n">
+        <v>29.36321749707865</v>
+      </c>
+      <c r="N153" t="n">
+        <v>1.087080244393924</v>
+      </c>
+      <c r="O153" t="n">
+        <v>-20.96526623421832</v>
+      </c>
+      <c r="P153" t="n">
+        <v>-22.05234647861224</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>915</v>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="n">
+        <v>6.28595495223999</v>
+      </c>
+      <c r="E154" t="n">
+        <v>30.98378218626473</v>
+      </c>
+      <c r="F154" t="b">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>55.52799342927821</v>
+      </c>
+      <c r="H154" t="n">
+        <v>39</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-7.03087292584712</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="b">
+        <v>1</v>
+      </c>
+      <c r="L154" t="n">
+        <v>30</v>
+      </c>
+      <c r="M154" t="n">
+        <v>13.58406985327556</v>
+      </c>
+      <c r="N154" t="n">
+        <v>24.54421124301348</v>
+      </c>
+      <c r="O154" t="n">
+        <v>-17.39971233298917</v>
+      </c>
+      <c r="P154" t="n">
+        <v>-41.94392357600265</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>937</v>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="n">
+        <v>7.165639877319336</v>
+      </c>
+      <c r="E155" t="n">
+        <v>8.155562931693737</v>
+      </c>
+      <c r="F155" t="b">
+        <v>1</v>
+      </c>
+      <c r="G155" t="n">
+        <v>36.43470468047798</v>
+      </c>
+      <c r="H155" t="n">
+        <v>17</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-0.5731781931780316</v>
+      </c>
+      <c r="J155" t="n">
+        <v>8</v>
+      </c>
+      <c r="K155" t="b">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>8</v>
+      </c>
+      <c r="M155" t="n">
+        <v>-0.3600015331956829</v>
+      </c>
+      <c r="N155" t="n">
+        <v>28.27914174878424</v>
+      </c>
+      <c r="O155" t="n">
+        <v>-8.515564464889421</v>
+      </c>
+      <c r="P155" t="n">
+        <v>-36.79470621367366</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="n">
+        <v>9.46635627746582</v>
+      </c>
+      <c r="E156" t="n">
+        <v>29.82856268978825</v>
+      </c>
+      <c r="F156" t="b">
+        <v>1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>58.88560228376738</v>
+      </c>
+      <c r="H156" t="n">
+        <v>28</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-4.451054200308169</v>
+      </c>
+      <c r="J156" t="n">
+        <v>4</v>
+      </c>
+      <c r="K156" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>31</v>
+      </c>
+      <c r="M156" t="n">
+        <v>41.46485551259627</v>
+      </c>
+      <c r="N156" t="n">
+        <v>29.05703959397913</v>
+      </c>
+      <c r="O156" t="n">
+        <v>11.63629282280801</v>
+      </c>
+      <c r="P156" t="n">
+        <v>-17.42074677117112</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1006</v>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="n">
+        <v>9.675473213195801</v>
+      </c>
+      <c r="E157" t="n">
+        <v>53.01942177340446</v>
+      </c>
+      <c r="F157" t="b">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>55.45159243752241</v>
+      </c>
+      <c r="H157" t="n">
+        <v>23</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-2.290330555335235</v>
+      </c>
+      <c r="J157" t="n">
+        <v>2</v>
+      </c>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>26</v>
+      </c>
+      <c r="M157" t="n">
+        <v>38.40736194650045</v>
+      </c>
+      <c r="N157" t="n">
+        <v>2.432170664117955</v>
+      </c>
+      <c r="O157" t="n">
+        <v>-14.61205982690401</v>
+      </c>
+      <c r="P157" t="n">
+        <v>-17.04423049102196</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1055</v>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="n">
+        <v>13.50630187988281</v>
+      </c>
+      <c r="E158" t="n">
+        <v>-18.0562679277726</v>
+      </c>
+      <c r="F158" t="b">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>17.86890889269923</v>
+      </c>
+      <c r="H158" t="n">
+        <v>4</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-52.20163502978672</v>
+      </c>
+      <c r="J158" t="n">
+        <v>31</v>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>11</v>
+      </c>
+      <c r="M158" t="n">
+        <v>-4.054719883319093</v>
+      </c>
+      <c r="N158" t="n">
+        <v>35.92517682047183</v>
+      </c>
+      <c r="O158" t="n">
+        <v>14.00154804445351</v>
+      </c>
+      <c r="P158" t="n">
+        <v>-21.92362877601833</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1059</v>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="n">
+        <v>15.5058183670044</v>
+      </c>
+      <c r="E159" t="n">
+        <v>-28.77264687823608</v>
+      </c>
+      <c r="F159" t="b">
+        <v>0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>2.669399839278297</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-58.3653612229667</v>
+      </c>
+      <c r="J159" t="n">
+        <v>27</v>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>7</v>
+      </c>
+      <c r="M159" t="n">
+        <v>-16.42711874122374</v>
+      </c>
+      <c r="N159" t="n">
+        <v>31.44204671751438</v>
+      </c>
+      <c r="O159" t="n">
+        <v>12.34552813701234</v>
+      </c>
+      <c r="P159" t="n">
+        <v>-19.09651858050204</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1098</v>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="n">
+        <v>10.55521774291992</v>
+      </c>
+      <c r="E160" t="n">
+        <v>30.12095828422759</v>
+      </c>
+      <c r="F160" t="b">
+        <v>1</v>
+      </c>
+      <c r="G160" t="n">
+        <v>41.81969042784129</v>
+      </c>
+      <c r="H160" t="n">
+        <v>48</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-16.39298019786796</v>
+      </c>
+      <c r="J160" t="n">
+        <v>3</v>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>29</v>
+      </c>
+      <c r="M160" t="n">
+        <v>14.9283137217486</v>
+      </c>
+      <c r="N160" t="n">
+        <v>11.6987321436137</v>
+      </c>
+      <c r="O160" t="n">
+        <v>-15.19264456247899</v>
+      </c>
+      <c r="P160" t="n">
+        <v>-26.89137670609269</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1110</v>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="n">
+        <v>11.6969747543335</v>
+      </c>
+      <c r="E161" t="n">
+        <v>9.355657366915606</v>
+      </c>
+      <c r="F161" t="b">
+        <v>1</v>
+      </c>
+      <c r="G161" t="n">
+        <v>31.02269116381338</v>
+      </c>
+      <c r="H161" t="n">
+        <v>48</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-11.27159003053159</v>
+      </c>
+      <c r="J161" t="n">
+        <v>9</v>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>17</v>
+      </c>
+      <c r="M161" t="n">
+        <v>3.710010634180521</v>
+      </c>
+      <c r="N161" t="n">
+        <v>21.66703379689778</v>
+      </c>
+      <c r="O161" t="n">
+        <v>-5.645646732735085</v>
+      </c>
+      <c r="P161" t="n">
+        <v>-27.31268052963286</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1139</v>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="n">
+        <v>13.58986377716064</v>
+      </c>
+      <c r="E162" t="n">
+        <v>10.11038943495108</v>
+      </c>
+      <c r="F162" t="b">
+        <v>1</v>
+      </c>
+      <c r="G162" t="n">
+        <v>16.15119798958842</v>
+      </c>
+      <c r="H162" t="n">
+        <v>50</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-10.69528782290537</v>
+      </c>
+      <c r="J162" t="n">
+        <v>25</v>
+      </c>
+      <c r="K162" t="b">
+        <v>0</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
+        <v>6.040808554637342</v>
+      </c>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1176</v>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="n">
+        <v>13.7805004119873</v>
+      </c>
+      <c r="E163" t="n">
+        <v>-2.820171375556747</v>
+      </c>
+      <c r="F163" t="b">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>26.68216466264438</v>
+      </c>
+      <c r="H163" t="n">
+        <v>35</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-11.46742524847271</v>
+      </c>
+      <c r="J163" t="n">
+        <v>52</v>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>25</v>
+      </c>
+      <c r="M163" t="n">
+        <v>17.30928002141468</v>
+      </c>
+      <c r="N163" t="n">
+        <v>29.50233603820113</v>
+      </c>
+      <c r="O163" t="n">
+        <v>20.12945139697143</v>
+      </c>
+      <c r="P163" t="n">
+        <v>-9.372884641229703</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1290</v>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="n">
+        <v>12.94909191131592</v>
+      </c>
+      <c r="E164" t="n">
+        <v>6.330146021091158</v>
+      </c>
+      <c r="F164" t="b">
+        <v>1</v>
+      </c>
+      <c r="G164" t="n">
+        <v>12.39999648722756</v>
+      </c>
+      <c r="H164" t="n">
+        <v>18</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-11.45180726600582</v>
+      </c>
+      <c r="J164" t="n">
+        <v>36</v>
+      </c>
+      <c r="K164" t="b">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>22</v>
+      </c>
+      <c r="M164" t="n">
+        <v>-2.722124667304493</v>
+      </c>
+      <c r="N164" t="n">
+        <v>6.069850466136403</v>
+      </c>
+      <c r="O164" t="n">
+        <v>-9.052270688395652</v>
+      </c>
+      <c r="P164" t="n">
+        <v>-15.12212115453205</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1307</v>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="n">
+        <v>14.27729797363281</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.725608837237637</v>
+      </c>
+      <c r="F165" t="b">
+        <v>1</v>
+      </c>
+      <c r="G165" t="n">
+        <v>3.39812538047078</v>
+      </c>
+      <c r="H165" t="n">
+        <v>46</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-19.68937761115778</v>
+      </c>
+      <c r="J165" t="n">
+        <v>19</v>
+      </c>
+      <c r="K165" t="b">
+        <v>1</v>
+      </c>
+      <c r="L165" t="n">
+        <v>5</v>
+      </c>
+      <c r="M165" t="n">
+        <v>-11.77181067825755</v>
+      </c>
+      <c r="N165" t="n">
+        <v>1.672516543233144</v>
+      </c>
+      <c r="O165" t="n">
+        <v>-13.49741951549519</v>
+      </c>
+      <c r="P165" t="n">
+        <v>-15.16993605872833</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1338</v>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="n">
+        <v>14.01528072357178</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1.709400604392176</v>
+      </c>
+      <c r="F166" t="b">
+        <v>1</v>
+      </c>
+      <c r="G166" t="n">
+        <v>11.46503936131315</v>
+      </c>
+      <c r="H166" t="n">
+        <v>48</v>
+      </c>
+      <c r="I166" t="n">
+        <v>-5.605920797062738</v>
+      </c>
+      <c r="J166" t="n">
+        <v>3</v>
+      </c>
+      <c r="K166" t="b">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>20</v>
+      </c>
+      <c r="M166" t="n">
+        <v>-0.8244031217289212</v>
+      </c>
+      <c r="N166" t="n">
+        <v>9.755638756920975</v>
+      </c>
+      <c r="O166" t="n">
+        <v>-2.533803726121097</v>
+      </c>
+      <c r="P166" t="n">
+        <v>-12.28944248304207</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1382</v>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="n">
+        <v>15.33123874664307</v>
+      </c>
+      <c r="E167" t="n">
+        <v>-26.9060484005661</v>
+      </c>
+      <c r="F167" t="b">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1.897429381226244</v>
+      </c>
+      <c r="H167" t="n">
+        <v>4</v>
+      </c>
+      <c r="I167" t="n">
+        <v>-30.55387564977386</v>
+      </c>
+      <c r="J167" t="n">
+        <v>25</v>
+      </c>
+      <c r="K167" t="b">
+        <v>1</v>
+      </c>
+      <c r="L167" t="n">
+        <v>17</v>
+      </c>
+      <c r="M167" t="n">
+        <v>-16.92673704459122</v>
+      </c>
+      <c r="N167" t="n">
+        <v>28.80347778179234</v>
+      </c>
+      <c r="O167" t="n">
+        <v>9.979311355974879</v>
+      </c>
+      <c r="P167" t="n">
+        <v>-18.82416642581746</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1423</v>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="n">
+        <v>12.97029304504394</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-33.36541341840179</v>
+      </c>
+      <c r="F168" t="b">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>6.549520743373997</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>-49.92992195717846</v>
+      </c>
+      <c r="J168" t="n">
+        <v>37</v>
+      </c>
+      <c r="K168" t="b">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>8</v>
+      </c>
+      <c r="M168" t="n">
+        <v>-9.087832964151319</v>
+      </c>
+      <c r="N168" t="n">
+        <v>39.91493416177579</v>
+      </c>
+      <c r="O168" t="n">
+        <v>24.27758045425048</v>
+      </c>
+      <c r="P168" t="n">
+        <v>-15.63735370752532</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1472</v>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="n">
+        <v>9.026613235473633</v>
+      </c>
+      <c r="E169" t="n">
+        <v>30.47466004021092</v>
+      </c>
+      <c r="F169" t="b">
+        <v>1</v>
+      </c>
+      <c r="G169" t="n">
+        <v>46.46001636899668</v>
+      </c>
+      <c r="H169" t="n">
+        <v>41</v>
+      </c>
+      <c r="I169" t="n">
+        <v>-15.71577150739893</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>10</v>
+      </c>
+      <c r="M169" t="n">
+        <v>-9.024900978226304</v>
+      </c>
+      <c r="N169" t="n">
+        <v>15.98535632878576</v>
+      </c>
+      <c r="O169" t="n">
+        <v>-39.49956101843723</v>
+      </c>
+      <c r="P169" t="n">
+        <v>-55.48491734722299</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1490</v>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="n">
+        <v>9.967663764953612</v>
+      </c>
+      <c r="E170" t="n">
+        <v>23.40574441680343</v>
+      </c>
+      <c r="F170" t="b">
+        <v>1</v>
+      </c>
+      <c r="G170" t="n">
+        <v>32.63267636217492</v>
+      </c>
+      <c r="H170" t="n">
+        <v>23</v>
+      </c>
+      <c r="I170" t="n">
+        <v>-7.421293553479708</v>
+      </c>
+      <c r="J170" t="n">
+        <v>2</v>
+      </c>
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
+      <c r="L170" t="n">
+        <v>12</v>
+      </c>
+      <c r="M170" t="n">
+        <v>18.3491578000571</v>
+      </c>
+      <c r="N170" t="n">
+        <v>9.226931945371486</v>
+      </c>
+      <c r="O170" t="n">
+        <v>-5.05658661674633</v>
+      </c>
+      <c r="P170" t="n">
+        <v>-14.28351856211782</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1495</v>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="n">
+        <v>10.18371295928955</v>
+      </c>
+      <c r="E171" t="n">
+        <v>26.15712826560016</v>
+      </c>
+      <c r="F171" t="b">
+        <v>1</v>
+      </c>
+      <c r="G171" t="n">
+        <v>34.27594194741361</v>
+      </c>
+      <c r="H171" t="n">
+        <v>51</v>
+      </c>
+      <c r="I171" t="n">
+        <v>-7.570840760564369</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>7</v>
+      </c>
+      <c r="M171" t="n">
+        <v>15.83836038311743</v>
+      </c>
+      <c r="N171" t="n">
+        <v>8.11881368181345</v>
+      </c>
+      <c r="O171" t="n">
+        <v>-10.31876788248274</v>
+      </c>
+      <c r="P171" t="n">
+        <v>-18.43758156429619</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1544</v>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="n">
+        <v>13.28414058685303</v>
+      </c>
+      <c r="E172" t="n">
+        <v>27.19757181754229</v>
+      </c>
+      <c r="F172" t="b">
+        <v>1</v>
+      </c>
+      <c r="G172" t="n">
+        <v>35.16418172147399</v>
+      </c>
+      <c r="H172" t="n">
+        <v>48</v>
+      </c>
+      <c r="I172" t="n">
+        <v>-4.815087945950934</v>
+      </c>
+      <c r="J172" t="n">
+        <v>4</v>
+      </c>
+      <c r="K172" t="b">
+        <v>0</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="n">
+        <v>7.966609903931701</v>
+      </c>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1546</v>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="n">
+        <v>13.0009593963623</v>
+      </c>
+      <c r="E173" t="n">
+        <v>28.36051862557211</v>
+      </c>
+      <c r="F173" t="b">
+        <v>1</v>
+      </c>
+      <c r="G173" t="n">
+        <v>38.10826859419363</v>
+      </c>
+      <c r="H173" t="n">
+        <v>46</v>
+      </c>
+      <c r="I173" t="n">
+        <v>-2.741811975274315</v>
+      </c>
+      <c r="J173" t="n">
+        <v>2</v>
+      </c>
+      <c r="K173" t="b">
+        <v>1</v>
+      </c>
+      <c r="L173" t="n">
+        <v>51</v>
+      </c>
+      <c r="M173" t="n">
+        <v>22.49327965961328</v>
+      </c>
+      <c r="N173" t="n">
+        <v>9.747749968621527</v>
+      </c>
+      <c r="O173" t="n">
+        <v>-5.86723896595883</v>
+      </c>
+      <c r="P173" t="n">
+        <v>-15.61498893458036</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1618</v>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="n">
+        <v>19.24613761901855</v>
+      </c>
+      <c r="E174" t="n">
+        <v>19.45806751862815</v>
+      </c>
+      <c r="F174" t="b">
+        <v>1</v>
+      </c>
+      <c r="G174" t="n">
+        <v>25.73414810589108</v>
+      </c>
+      <c r="H174" t="n">
+        <v>51</v>
+      </c>
+      <c r="I174" t="n">
+        <v>-5.571430608616057</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="n">
+        <v>6.276080587262932</v>
+      </c>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>1663</v>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="n">
+        <v>22.96188735961914</v>
+      </c>
+      <c r="E175" t="n">
+        <v>15.0843674892899</v>
+      </c>
+      <c r="F175" t="b">
+        <v>1</v>
+      </c>
+      <c r="G175" t="n">
+        <v>16.37442793744276</v>
+      </c>
+      <c r="H175" t="n">
+        <v>52</v>
+      </c>
+      <c r="I175" t="n">
+        <v>-36.78523692847232</v>
+      </c>
+      <c r="J175" t="n">
+        <v>13</v>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="n">
+        <v>42</v>
+      </c>
+      <c r="M175" t="n">
+        <v>-5.610391936233324</v>
+      </c>
+      <c r="N175" t="n">
+        <v>1.290060448152856</v>
+      </c>
+      <c r="O175" t="n">
+        <v>-20.69475942552323</v>
+      </c>
+      <c r="P175" t="n">
+        <v>-21.98481987367608</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1668</v>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="n">
+        <v>23.6912956237793</v>
+      </c>
+      <c r="E176" t="n">
+        <v>21.96066648729392</v>
+      </c>
+      <c r="F176" t="b">
+        <v>1</v>
+      </c>
+      <c r="G176" t="n">
+        <v>23.84920845145319</v>
+      </c>
+      <c r="H176" t="n">
+        <v>52</v>
+      </c>
+      <c r="I176" t="n">
+        <v>-38.73149480028823</v>
+      </c>
+      <c r="J176" t="n">
+        <v>8</v>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="n">
+        <v>37</v>
+      </c>
+      <c r="M176" t="n">
+        <v>-8.516461796905919</v>
+      </c>
+      <c r="N176" t="n">
+        <v>1.88854196415927</v>
+      </c>
+      <c r="O176" t="n">
+        <v>-30.47712828419984</v>
+      </c>
+      <c r="P176" t="n">
+        <v>-32.36567024835911</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1688</v>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="n">
+        <v>21.9268627166748</v>
+      </c>
+      <c r="E177" t="n">
+        <v>41.29746622105045</v>
+      </c>
+      <c r="F177" t="b">
+        <v>1</v>
+      </c>
+      <c r="G177" t="n">
+        <v>50.19555706341446</v>
+      </c>
+      <c r="H177" t="n">
+        <v>49</v>
+      </c>
+      <c r="I177" t="n">
+        <v>-5.06702778821507</v>
+      </c>
+      <c r="J177" t="n">
+        <v>21</v>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="n">
+        <v>17</v>
+      </c>
+      <c r="M177" t="n">
+        <v>-1.154872163696006</v>
+      </c>
+      <c r="N177" t="n">
+        <v>8.898090842364006</v>
+      </c>
+      <c r="O177" t="n">
+        <v>-42.45233838474645</v>
+      </c>
+      <c r="P177" t="n">
+        <v>-51.35042922711046</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1725</v>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="n">
+        <v>29.20263290405273</v>
+      </c>
+      <c r="E178" t="n">
+        <v>11.95602520869543</v>
+      </c>
+      <c r="F178" t="b">
+        <v>1</v>
+      </c>
+      <c r="G178" t="n">
+        <v>18.71591879534146</v>
+      </c>
+      <c r="H178" t="n">
+        <v>23</v>
+      </c>
+      <c r="I178" t="n">
+        <v>-16.99008501655495</v>
+      </c>
+      <c r="J178" t="n">
+        <v>37</v>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="n">
+        <v>17</v>
+      </c>
+      <c r="M178" t="n">
+        <v>1.240435541674108</v>
+      </c>
+      <c r="N178" t="n">
+        <v>6.759893586646029</v>
+      </c>
+      <c r="O178" t="n">
+        <v>-10.71558966702132</v>
+      </c>
+      <c r="P178" t="n">
+        <v>-17.47548325366735</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1776</v>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="n">
+        <v>33.30762481689453</v>
+      </c>
+      <c r="E179" t="n">
+        <v>23.74236004010358</v>
+      </c>
+      <c r="F179" t="b">
+        <v>1</v>
+      </c>
+      <c r="G179" t="n">
+        <v>29.43966877252292</v>
+      </c>
+      <c r="H179" t="n">
+        <v>50</v>
+      </c>
+      <c r="I179" t="n">
+        <v>-13.43714216324326</v>
+      </c>
+      <c r="J179" t="n">
+        <v>22</v>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="n">
+        <v>21</v>
+      </c>
+      <c r="M179" t="n">
+        <v>-5.247128923514389</v>
+      </c>
+      <c r="N179" t="n">
+        <v>5.697308732419341</v>
+      </c>
+      <c r="O179" t="n">
+        <v>-28.98948896361797</v>
+      </c>
+      <c r="P179" t="n">
+        <v>-34.68679769603732</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1793</v>
+      </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="n">
+        <v>37.19276428222656</v>
+      </c>
+      <c r="E180" t="n">
+        <v>6.286808220835972</v>
+      </c>
+      <c r="F180" t="b">
+        <v>1</v>
+      </c>
+      <c r="G180" t="n">
+        <v>15.91845906324748</v>
+      </c>
+      <c r="H180" t="n">
+        <v>33</v>
+      </c>
+      <c r="I180" t="n">
+        <v>-22.4794594446781</v>
+      </c>
+      <c r="J180" t="n">
+        <v>5</v>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="n">
+        <v>4</v>
+      </c>
+      <c r="M180" t="n">
+        <v>-15.14497131240859</v>
+      </c>
+      <c r="N180" t="n">
+        <v>9.631650842411503</v>
+      </c>
+      <c r="O180" t="n">
+        <v>-21.43177953324456</v>
+      </c>
+      <c r="P180" t="n">
+        <v>-31.06343037565606</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1810</v>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="n">
+        <v>34.39789199829102</v>
+      </c>
+      <c r="E181" t="n">
+        <v>16.14632966482615</v>
+      </c>
+      <c r="F181" t="b">
+        <v>1</v>
+      </c>
+      <c r="G181" t="n">
+        <v>25.33698065313106</v>
+      </c>
+      <c r="H181" t="n">
+        <v>16</v>
+      </c>
+      <c r="I181" t="n">
+        <v>-7.813287066053885</v>
+      </c>
+      <c r="J181" t="n">
+        <v>4</v>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="n">
+        <v>24</v>
+      </c>
+      <c r="M181" t="n">
+        <v>12.14733929076218</v>
+      </c>
+      <c r="N181" t="n">
+        <v>9.19065098830491</v>
+      </c>
+      <c r="O181" t="n">
+        <v>-3.99899037406397</v>
+      </c>
+      <c r="P181" t="n">
+        <v>-13.18964136236888</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1859</v>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="n">
+        <v>41.50562286376953</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-11.11296867317069</v>
+      </c>
+      <c r="F182" t="b">
+        <v>0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>11.29597696389687</v>
+      </c>
+      <c r="H182" t="n">
+        <v>15</v>
+      </c>
+      <c r="I182" t="n">
+        <v>-14.07587671561889</v>
+      </c>
+      <c r="J182" t="n">
+        <v>51</v>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="n">
+        <v>22</v>
+      </c>
+      <c r="M182" t="n">
+        <v>-0.1532381473192745</v>
+      </c>
+      <c r="N182" t="n">
+        <v>22.40894563706756</v>
+      </c>
+      <c r="O182" t="n">
+        <v>10.95973052585141</v>
+      </c>
+      <c r="P182" t="n">
+        <v>-11.44921511121615</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1868</v>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="n">
+        <v>42.35063552856445</v>
+      </c>
+      <c r="E183" t="n">
+        <v>-9.293282765708593</v>
+      </c>
+      <c r="F183" t="b">
+        <v>0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>9.075313474401309</v>
+      </c>
+      <c r="H183" t="n">
+        <v>6</v>
+      </c>
+      <c r="I183" t="n">
+        <v>-15.79030133948861</v>
+      </c>
+      <c r="J183" t="n">
+        <v>42</v>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="n">
+        <v>13</v>
+      </c>
+      <c r="M183" t="n">
+        <v>-2.145458033780506</v>
+      </c>
+      <c r="N183" t="n">
+        <v>18.3685962401099</v>
+      </c>
+      <c r="O183" t="n">
+        <v>7.147824731928087</v>
+      </c>
+      <c r="P183" t="n">
+        <v>-11.22077150818182</v>
       </c>
     </row>
   </sheetData>
@@ -7109,7 +9379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7322,40 +9592,90 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>47</v>
+      </c>
+      <c r="C4" t="n">
+        <v>78.72340425531915</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.12607492202269</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11.95602520869543</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21.15999711467054</v>
+      </c>
+      <c r="G4" t="n">
+        <v>26.83064937711891</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-15.16713333315056</v>
+      </c>
+      <c r="I4" t="n">
+        <v>13.70457445509622</v>
+      </c>
+      <c r="J4" t="n">
+        <v>78.72340425531915</v>
+      </c>
+      <c r="K4" t="n">
+        <v>20.35135135135135</v>
+      </c>
+      <c r="L4" t="n">
+        <v>24.32432432432433</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-11.70802597597825</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>random_baseline</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>500</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>71.39999999999999</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>14.07848121431082</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>12.35389002388495</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R5" t="n">
         <v>23.65387180456124</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>27.70719585542124</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>-12.9774263599488</v>
       </c>
     </row>
